--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2.856696666666667</v>
+      </c>
+      <c r="H2">
+        <v>8.57009</v>
+      </c>
+      <c r="I2">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="J2">
+        <v>0.05747862151401942</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>2.301656666666667</v>
-      </c>
-      <c r="H2">
-        <v>6.90497</v>
-      </c>
-      <c r="I2">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="J2">
-        <v>0.04570678505973542</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>4.800392685416666</v>
+        <v>3.493629564395555</v>
       </c>
       <c r="R2">
-        <v>43.20353416875</v>
+        <v>31.44266607956</v>
       </c>
       <c r="S2">
-        <v>0.001204710886972051</v>
+        <v>0.001197216931523351</v>
       </c>
       <c r="T2">
-        <v>0.001204710886972051</v>
+        <v>0.001197216931523351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>22.86409418800222</v>
+        <v>28.37772574821555</v>
       </c>
       <c r="R3">
-        <v>205.77684769202</v>
+        <v>255.39953173394</v>
       </c>
       <c r="S3">
-        <v>0.005737993742203582</v>
+        <v>0.00972464112684706</v>
       </c>
       <c r="T3">
-        <v>0.005737993742203581</v>
+        <v>0.009724641126847062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>69.06355827479001</v>
+        <v>41.47040269390667</v>
       </c>
       <c r="R4">
-        <v>621.5720244731101</v>
+        <v>373.2336242451601</v>
       </c>
       <c r="S4">
-        <v>0.01733225300493234</v>
+        <v>0.01421131443591575</v>
       </c>
       <c r="T4">
-        <v>0.01733225300493233</v>
+        <v>0.01421131443591576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>36.14759083579444</v>
+        <v>34.96972851727778</v>
       </c>
       <c r="R5">
-        <v>325.32831752215</v>
+        <v>314.7275566555001</v>
       </c>
       <c r="S5">
-        <v>0.009071632066682244</v>
+        <v>0.01198362628320136</v>
       </c>
       <c r="T5">
-        <v>0.009071632066682243</v>
+        <v>0.01198362628320137</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H6">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>49.25147770560334</v>
+        <v>59.41835938355333</v>
       </c>
       <c r="R6">
-        <v>443.26329935043</v>
+        <v>534.7652344519801</v>
       </c>
       <c r="S6">
-        <v>0.01236019535894521</v>
+        <v>0.02036182273653188</v>
       </c>
       <c r="T6">
-        <v>0.01236019535894521</v>
+        <v>0.02036182273653189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>79.90247392333333</v>
+        <v>46.85292708224711</v>
       </c>
       <c r="R7">
-        <v>719.12226531</v>
+        <v>421.6763437402241</v>
       </c>
       <c r="S7">
-        <v>0.02005239707240429</v>
+        <v>0.0160558286333371</v>
       </c>
       <c r="T7">
-        <v>0.02005239707240428</v>
+        <v>0.0160558286333371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
         <v>380.572550905575</v>
@@ -948,10 +948,10 @@
         <v>3425.152958150176</v>
       </c>
       <c r="S8">
-        <v>0.09550883134030028</v>
+        <v>0.1304167752244266</v>
       </c>
       <c r="T8">
-        <v>0.09550883134030026</v>
+        <v>0.1304167752244267</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>1149.562030803952</v>
+        <v>556.1579204878293</v>
       </c>
       <c r="R9">
-        <v>10346.05827723557</v>
+        <v>5005.421284390464</v>
       </c>
       <c r="S9">
-        <v>0.2884951262354937</v>
+        <v>0.1905873724548831</v>
       </c>
       <c r="T9">
-        <v>0.2884951262354937</v>
+        <v>0.1905873724548831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>601.6761801431021</v>
+        <v>468.9776377563556</v>
       </c>
       <c r="R10">
-        <v>5415.08562128792</v>
+        <v>4220.7987398072</v>
       </c>
       <c r="S10">
-        <v>0.1509971979692817</v>
+        <v>0.1607119352749337</v>
       </c>
       <c r="T10">
-        <v>0.1509971979692817</v>
+        <v>0.1607119352749337</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>819.7902069580426</v>
+        <v>796.8572535325546</v>
       </c>
       <c r="R11">
-        <v>7378.111862622383</v>
+        <v>7171.715281792993</v>
       </c>
       <c r="S11">
-        <v>0.2057352912722602</v>
+        <v>0.2730715945556828</v>
       </c>
       <c r="T11">
-        <v>0.2057352912722601</v>
+        <v>0.2730715945556828</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N12">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P12">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q12">
-        <v>8.237769645416664</v>
+        <v>2.545726095157333</v>
       </c>
       <c r="R12">
-        <v>74.13992680874999</v>
+        <v>22.911534856416</v>
       </c>
       <c r="S12">
-        <v>0.002067358115587153</v>
+        <v>0.0008723839571326992</v>
       </c>
       <c r="T12">
-        <v>0.002067358115587153</v>
+        <v>0.0008723839571326994</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P13">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q13">
-        <v>39.23619449801821</v>
+        <v>20.67818457190933</v>
       </c>
       <c r="R13">
-        <v>353.1257504821639</v>
+        <v>186.103661147184</v>
       </c>
       <c r="S13">
-        <v>0.009846750833262849</v>
+        <v>0.00708611838385846</v>
       </c>
       <c r="T13">
-        <v>0.009846750833262847</v>
+        <v>0.007086118383858462</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N14">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O14">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P14">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q14">
-        <v>118.517321653478</v>
+        <v>30.218511828064</v>
       </c>
       <c r="R14">
-        <v>1066.655894881302</v>
+        <v>271.966606452576</v>
       </c>
       <c r="S14">
-        <v>0.02974321415922256</v>
+        <v>0.01035545221356522</v>
       </c>
       <c r="T14">
-        <v>0.02974321415922255</v>
+        <v>0.01035545221356522</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N15">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P15">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q15">
-        <v>62.03149326651443</v>
+        <v>25.48162270386667</v>
       </c>
       <c r="R15">
-        <v>558.2834393986299</v>
+        <v>229.3346043348</v>
       </c>
       <c r="S15">
-        <v>0.01556747961480926</v>
+        <v>0.008732187995734777</v>
       </c>
       <c r="T15">
-        <v>0.01556747961480926</v>
+        <v>0.008732187995734778</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N16">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P16">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q16">
-        <v>84.51857058854732</v>
+        <v>43.29676779579199</v>
       </c>
       <c r="R16">
-        <v>760.6671352969258</v>
+        <v>389.670910162128</v>
       </c>
       <c r="S16">
-        <v>0.02121085686357781</v>
+        <v>0.01483718365954616</v>
       </c>
       <c r="T16">
-        <v>0.0212108568635778</v>
+        <v>0.01483718365954616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N17">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P17">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q17">
-        <v>6.365406058541666</v>
+        <v>5.592872044134222</v>
       </c>
       <c r="R17">
-        <v>57.288654526875</v>
+        <v>50.335848397208</v>
       </c>
       <c r="S17">
-        <v>0.001597468057565251</v>
+        <v>0.001916597333420946</v>
       </c>
       <c r="T17">
-        <v>0.001597468057565251</v>
+        <v>0.001916597333420946</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P18">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q18">
-        <v>30.31819544878422</v>
+        <v>45.42925518801022</v>
       </c>
       <c r="R18">
-        <v>272.863759039058</v>
+        <v>408.863296692092</v>
       </c>
       <c r="S18">
-        <v>0.007608681731695991</v>
+        <v>0.01556795661791659</v>
       </c>
       <c r="T18">
-        <v>0.007608681731695989</v>
+        <v>0.01556795661791659</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N19">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O19">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P19">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q19">
-        <v>91.57950631879102</v>
+        <v>66.38902368169867</v>
       </c>
       <c r="R19">
-        <v>824.215556869119</v>
+        <v>597.501213135288</v>
       </c>
       <c r="S19">
-        <v>0.02298287567617963</v>
+        <v>0.02275056978823849</v>
       </c>
       <c r="T19">
-        <v>0.02298287567617962</v>
+        <v>0.02275056978823849</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N20">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P20">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q20">
-        <v>47.93234820285944</v>
+        <v>55.98224236721112</v>
       </c>
       <c r="R20">
-        <v>431.3911338257349</v>
+        <v>503.8401813049</v>
       </c>
       <c r="S20">
-        <v>0.012029145426695</v>
+        <v>0.01918431453343419</v>
       </c>
       <c r="T20">
-        <v>0.012029145426695</v>
+        <v>0.01918431453343419</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N21">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P21">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q21">
-        <v>65.30833519761633</v>
+        <v>95.12149899672933</v>
       </c>
       <c r="R21">
-        <v>587.775016778547</v>
+        <v>856.0934909705639</v>
       </c>
       <c r="S21">
-        <v>0.01638983882747903</v>
+        <v>0.03259677852264474</v>
       </c>
       <c r="T21">
-        <v>0.01638983882747903</v>
+        <v>0.03259677852264475</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N22">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P22">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q22">
-        <v>5.719779983541666</v>
+        <v>2.296218746892</v>
       </c>
       <c r="R22">
-        <v>51.478019851875</v>
+        <v>20.665968722028</v>
       </c>
       <c r="S22">
-        <v>0.001435441154260355</v>
+        <v>0.0007868813540728263</v>
       </c>
       <c r="T22">
-        <v>0.001435441154260355</v>
+        <v>0.0007868813540728265</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P23">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q23">
-        <v>27.24310214779755</v>
+        <v>18.651509742558</v>
       </c>
       <c r="R23">
-        <v>245.187919330178</v>
+        <v>167.863587683022</v>
       </c>
       <c r="S23">
-        <v>0.00683695353758224</v>
+        <v>0.006391605878835221</v>
       </c>
       <c r="T23">
-        <v>0.006836953537582239</v>
+        <v>0.006391605878835221</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N24">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O24">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P24">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q24">
-        <v>82.29084245803101</v>
+        <v>27.256786774812</v>
       </c>
       <c r="R24">
-        <v>740.617582122279</v>
+        <v>245.311080973308</v>
       </c>
       <c r="S24">
-        <v>0.02065178419850187</v>
+        <v>0.00934051135766951</v>
       </c>
       <c r="T24">
-        <v>0.02065178419850187</v>
+        <v>0.00934051135766951</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N25">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P25">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q25">
-        <v>43.0706986001261</v>
+        <v>22.98416151885001</v>
       </c>
       <c r="R25">
-        <v>387.636287401135</v>
+        <v>206.85745366965</v>
       </c>
       <c r="S25">
-        <v>0.01080906144838858</v>
+        <v>0.007876343733653824</v>
       </c>
       <c r="T25">
-        <v>0.01080906144838858</v>
+        <v>0.007876343733653823</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N26">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P26">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q26">
-        <v>58.68428580773632</v>
+        <v>39.053239105986</v>
       </c>
       <c r="R26">
-        <v>528.1585722696269</v>
+        <v>351.479151953874</v>
       </c>
       <c r="S26">
-        <v>0.01472746140571685</v>
+        <v>0.01338298701299362</v>
       </c>
       <c r="T26">
-        <v>0.01472746140571684</v>
+        <v>0.01338298701299362</v>
       </c>
     </row>
   </sheetData>
